--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60796.75029263232</v>
+        <v>60796.75029263234</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13019139.65127923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23540750.25461933</v>
+        <v>23083122.64898944</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3183079.072461132</v>
+        <v>3432564.683024601</v>
       </c>
     </row>
     <row r="11">
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8845,10 +8845,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9100,10 +9100,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11224,19 +11224,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22589,10 +22589,10 @@
         <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S2" t="n">
         <v>179.7218745449422</v>
@@ -22644,10 +22644,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330534</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -22671,7 +22671,7 @@
         <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S3" t="n">
         <v>158.905408270449</v>
@@ -22726,10 +22726,10 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.22083756629321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>49.14113189899257</v>
@@ -22738,7 +22738,7 @@
         <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>56.93882853040726</v>
@@ -22747,7 +22747,7 @@
         <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R4" t="n">
         <v>151.3616578248528</v>
@@ -22829,7 +22829,7 @@
         <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S5" t="n">
         <v>179.7218745449422</v>
@@ -22881,7 +22881,7 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330534</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J6" t="n">
         <v>61.84452414151258</v>
@@ -22908,7 +22908,7 @@
         <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S6" t="n">
         <v>158.905408270449</v>
@@ -22963,28 +22963,28 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.22083756629321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K7" t="n">
         <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
         <v>151.3616578248528</v>
@@ -23042,16 +23042,16 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J8" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L8" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>80.70197082457096</v>
       </c>
       <c r="R8" t="n">
-        <v>133.2157111723112</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
         <v>179.1392278518137</v>
@@ -23118,10 +23118,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I9" t="n">
-        <v>75.36649093292084</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J9" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>24.54878065809741</v>
@@ -23145,7 +23145,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R9" t="n">
-        <v>102.1188968768846</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S9" t="n">
         <v>158.6512997408977</v>
@@ -23200,19 +23200,19 @@
         <v>137.761816287615</v>
       </c>
       <c r="J10" t="n">
-        <v>85.40996247914654</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K10" t="n">
         <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M10" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O10" t="n">
         <v>55.31770395088348</v>
@@ -23221,7 +23221,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.2516053991695</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R10" t="n">
         <v>150.8459592031442</v>
@@ -23437,10 +23437,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>47.39929435887775</v>
@@ -23458,7 +23458,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
         <v>150.8348675305268</v>
@@ -23674,10 +23674,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>47.39929435887775</v>
@@ -23692,10 +23692,10 @@
         <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
         <v>150.8348675305268</v>
@@ -23911,7 +23911,7 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>60.64691470913344</v>
@@ -23932,7 +23932,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
         <v>150.8348675305268</v>
@@ -24014,7 +24014,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24066,7 +24066,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>60.52422152698378</v>
@@ -24090,10 +24090,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -24148,10 +24148,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>47.39929435887775</v>
@@ -24169,7 +24169,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
         <v>150.8348675305268</v>
@@ -24251,7 +24251,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
         <v>179.1266962566148</v>
@@ -24303,7 +24303,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>60.52422152698378</v>
@@ -24327,10 +24327,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
         <v>158.6458343615066</v>
@@ -24385,10 +24385,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>47.39929435887775</v>
@@ -24406,7 +24406,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
         <v>150.8348675305268</v>
@@ -24464,7 +24464,7 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>53.21989217810253</v>
@@ -24488,7 +24488,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
         <v>179.1266962566148</v>
@@ -24540,7 +24540,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>60.52422152698378</v>
@@ -24567,7 +24567,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
         <v>158.6458343615066</v>
@@ -24622,13 +24622,13 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>46.68471506615329</v>
@@ -24643,7 +24643,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
         <v>150.8348675305268</v>
@@ -24725,7 +24725,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
         <v>179.1266962566148</v>
@@ -24777,7 +24777,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>60.52422152698378</v>
@@ -24804,7 +24804,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
         <v>158.6458343615066</v>
@@ -24862,7 +24862,7 @@
         <v>85.39252213584972</v>
       </c>
       <c r="K31" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>47.39929435887775</v>
@@ -24880,7 +24880,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
         <v>150.8348675305268</v>
@@ -24962,7 +24962,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
         <v>179.1266962566148</v>
@@ -25014,7 +25014,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>60.52422152698378</v>
@@ -25041,7 +25041,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
         <v>158.6458343615066</v>
@@ -25096,7 +25096,7 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>60.64691470913344</v>
@@ -25117,7 +25117,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
         <v>150.8348675305268</v>
@@ -25199,7 +25199,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
         <v>179.1266962566148</v>
@@ -25251,7 +25251,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>60.52422152698378</v>
@@ -25278,7 +25278,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
         <v>158.6458343615066</v>
@@ -25333,10 +25333,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>47.39929435887775</v>
@@ -25354,7 +25354,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
         <v>150.8348675305268</v>
@@ -25412,7 +25412,7 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>53.21989217810253</v>
@@ -25436,7 +25436,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
         <v>179.1266962566148</v>
@@ -25488,7 +25488,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>60.52422152698378</v>
@@ -25515,7 +25515,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
         <v>158.6458343615066</v>
@@ -25570,10 +25570,10 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>47.39929435887775</v>
@@ -25591,7 +25591,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
         <v>150.8348675305268</v>
@@ -25673,7 +25673,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
         <v>179.1266962566148</v>
@@ -25725,7 +25725,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>60.52422152698378</v>
@@ -25752,7 +25752,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
         <v>158.6458343615066</v>
@@ -25807,7 +25807,7 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>60.64691470913344</v>
@@ -25816,19 +25816,19 @@
         <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
         <v>150.8348675305268</v>
@@ -25910,7 +25910,7 @@
         <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
         <v>179.1266962566148</v>
@@ -25962,7 +25962,7 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>60.52422152698378</v>
@@ -25989,7 +25989,7 @@
         <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
         <v>158.6458343615066</v>
@@ -26044,7 +26044,7 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>60.64691470913344</v>
@@ -26065,7 +26065,7 @@
         <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
         <v>150.8348675305268</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>271709.221794009</v>
+        <v>309625.3834341286</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>271709.221794009</v>
+        <v>298116.0999280817</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>275928.726160744</v>
+        <v>307578.6674801881</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>276016.084663941</v>
+        <v>282720.3814691446</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276016.084663941</v>
+        <v>285515.8398768269</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>276016.084663941</v>
+        <v>280173.2110513609</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>276016.084663941</v>
+        <v>299742.3487419558</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>276016.084663941</v>
+        <v>299742.3487419558</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>276016.084663941</v>
+        <v>307704.5050154568</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>276016.084663941</v>
+        <v>294590.9949603217</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>276016.084663941</v>
+        <v>293456.5466780924</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>276016.084663941</v>
+        <v>296003.7170958761</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>276016.084663941</v>
+        <v>305713.734652384</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>276016.084663941</v>
+        <v>297739.1838530946</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276016.084663941</v>
+        <v>293456.5466780924</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61968.76988284417</v>
+        <v>69010.34275886636</v>
       </c>
       <c r="C2" t="n">
-        <v>61968.76988284418</v>
+        <v>66872.90439345768</v>
       </c>
       <c r="D2" t="n">
-        <v>62931.11298402938</v>
+        <v>68808.95922906899</v>
       </c>
       <c r="E2" t="n">
-        <v>62951.03685317954</v>
+        <v>64196.12054557449</v>
       </c>
       <c r="F2" t="n">
-        <v>62951.03685317954</v>
+        <v>64715.27710700121</v>
       </c>
       <c r="G2" t="n">
-        <v>62951.03685317954</v>
+        <v>63723.07461084325</v>
       </c>
       <c r="H2" t="n">
-        <v>62951.03685317954</v>
+        <v>67357.34303909657</v>
       </c>
       <c r="I2" t="n">
-        <v>62951.03685317954</v>
+        <v>67357.34303909657</v>
       </c>
       <c r="J2" t="n">
-        <v>62951.03685317954</v>
+        <v>68836.02920417531</v>
       </c>
       <c r="K2" t="n">
-        <v>62951.03685317954</v>
+        <v>66400.66305107879</v>
       </c>
       <c r="L2" t="n">
-        <v>62951.03685317953</v>
+        <v>66189.97979866479</v>
       </c>
       <c r="M2" t="n">
-        <v>62951.03685317954</v>
+        <v>66663.02573339603</v>
       </c>
       <c r="N2" t="n">
-        <v>62951.03685317953</v>
+        <v>68466.31470817608</v>
       </c>
       <c r="O2" t="n">
-        <v>62951.03685317954</v>
+        <v>66985.32670259378</v>
       </c>
       <c r="P2" t="n">
-        <v>62951.03685317954</v>
+        <v>66189.97979866479</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7041.572876022201</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4904.134510613487</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5877.846245039627</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1245.083692394944</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1764.240253821658</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>772.0377576637034</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4406.306185917019</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4406.306185917019</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5884.99235099578</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3449.626197899259</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3238.94294548526</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3711.988880216501</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5515.277854996533</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4034.289849414248</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3238.94294548526</v>
       </c>
     </row>
     <row r="5">
@@ -26522,16 +26522,16 @@
         <v>-286814.8165009674</v>
       </c>
       <c r="C6" t="n">
-        <v>21369.06731958685</v>
+        <v>21369.06731958687</v>
       </c>
       <c r="D6" t="n">
-        <v>16745.78189038901</v>
+        <v>16745.781890389</v>
       </c>
       <c r="E6" t="n">
-        <v>55727.3973308028</v>
+        <v>55727.39733080281</v>
       </c>
       <c r="F6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737577</v>
       </c>
       <c r="G6" t="n">
         <v>55837.29948737576</v>
@@ -26552,16 +26552,16 @@
         <v>55837.29948737575</v>
       </c>
       <c r="M6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
       <c r="N6" t="n">
-        <v>55837.29948737575</v>
+        <v>55837.29948737577</v>
       </c>
       <c r="O6" t="n">
         <v>55837.29948737576</v>
       </c>
       <c r="P6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
     </row>
   </sheetData>
@@ -31531,7 +31531,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M8" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -31680,19 +31680,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J10" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K10" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L10" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M10" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N10" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O10" t="n">
         <v>83.13883450095931</v>
